--- a/resources/test.xlsx
+++ b/resources/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t xml:space="preserve">Title </t>
   </si>
@@ -249,9 +249,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -346,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -388,6 +389,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,9 +473,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -894,9 +899,68 @@
         <v>38</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="766.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="11" t="n">
+        <v>7942</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I2:I7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="I2:I8" type="list">
       <formula1>"CC BY 4.0,CC BY-NC-SA,CC BY-NC,CC BY-ND,CC BY-SA 4.0"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -908,6 +972,7 @@
     <hyperlink ref="G5" r:id="rId4" display="https://www.loc.gov/item/mpc2004006832/PP/"/>
     <hyperlink ref="G6" r:id="rId5" display="https://www.loc.gov/item/mpc2004006762/PP/"/>
     <hyperlink ref="G7" r:id="rId6" display="https://www.loc.gov/item/mpc2004006762/PP/"/>
+    <hyperlink ref="G8" r:id="rId7" display="https://www.loc.gov/item/mpc2004006762/PP/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
